--- a/Artemia_francisca_genome_list_of_samples.xlsx
+++ b/Artemia_francisca_genome_list_of_samples.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="78">
   <si>
-    <t>Sup. table. 6: List of genomic and transcriptomic samples used and the parts of the analysis they were used for</t>
+    <t>Sup. table. 3: List of genomic and transcriptomic samples used and the parts of the analysis they were used for</t>
   </si>
   <si>
     <t>Used for? ( X when used)</t>
